--- a/service-system/target/classes/static/标志.xlsx
+++ b/service-system/target/classes/static/标志.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E7E70F-57E6-49C4-9DDC-7B277FFC115A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E768E37F-C2B3-46FB-8D96-7264F5E9AC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,116 +496,116 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -953,7 +953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
@@ -972,140 +972,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="26" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="26" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="26" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="29" t="s">
+      <c r="J3" s="31"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="26" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="26" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="28"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="15"/>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="26" t="s">
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="28"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="21" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="38" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1113,34 +1113,34 @@
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="24"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="42"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -1149,17 +1149,17 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="40"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="24"/>
     </row>
     <row r="9" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
-      <c r="B9" s="26" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="42"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -1168,76 +1168,76 @@
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="41"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="25"/>
     </row>
     <row r="10" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="40"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="24"/>
     </row>
     <row r="12" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="41"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="25"/>
     </row>
     <row r="13" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1257,8 +1257,8 @@
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1276,8 +1276,8 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1297,8 +1297,8 @@
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1316,8 +1316,8 @@
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1337,8 +1337,8 @@
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1356,8 +1356,8 @@
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="49"/>
+      <c r="B19" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1377,8 +1377,8 @@
       <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1396,8 +1396,8 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="49"/>
+      <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1417,8 +1417,8 @@
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1436,26 +1436,74 @@
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="A23:O23"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A11:A12"/>
@@ -1472,58 +1520,10 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="O11:O12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C
 陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
